--- a/Result/Shiftmap/Comparison_2_2_vs_3_2.xlsx
+++ b/Result/Shiftmap/Comparison_2_2_vs_3_2.xlsx
@@ -427,6 +427,9 @@
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -532,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
